--- a/LocalData/hero.xlsx
+++ b/LocalData/hero.xlsx
@@ -550,7 +550,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,7 +657,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>10100</v>
+        <v>50100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
